--- a/Project01/run_2.xlsx
+++ b/Project01/run_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yoga/Code/CSC345/Project01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yoga/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="run_2" sheetId="1" r:id="rId1"/>
@@ -96,11 +96,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Zeep</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="12700"/>
           </c:spPr>
@@ -3121,6 +3124,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Bubble</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="12700"/>
           </c:spPr>
@@ -6141,6 +6147,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Insertion</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="12700"/>
           </c:spPr>
@@ -9161,6 +9170,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Merge</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="12700"/>
           </c:spPr>
@@ -12181,6 +12193,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Quick</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="12700"/>
           </c:spPr>
@@ -15207,20 +15222,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1801961536"/>
-        <c:axId val="1801963856"/>
+        <c:axId val="1395220192"/>
+        <c:axId val="1352709280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1801961536"/>
+        <c:axId val="1395220192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1801963856"/>
+        <c:crossAx val="1352709280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15228,18 +15244,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1801963856"/>
+        <c:axId val="1352709280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIming</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1801961536"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1395220192"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -15264,16 +15300,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15560,8 +15596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
